--- a/medicine/Enfance/Thierry_Robberecht/Thierry_Robberecht.xlsx
+++ b/medicine/Enfance/Thierry_Robberecht/Thierry_Robberecht.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thierry Robberecht, né le 11 février 1960 à Bruxelles (province de Brabant)‚ est un scénariste belge de bande dessinée, parolier, illustrateur et auteur de livres jeunesse. Il écrit en français et parfois en flamand.
 </t>
@@ -511,17 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thierry Robberecht naît le 11 février 1960 à Bruxelles[1]. Il fait des études secondaires sans faire d'études supérieures[2] mais c'est un lecteur assidu[3].
-Parolier
-Comme parolier pour le chanteur belge Marka, il écrit Croyez-moi (1991), La Poupée Barbu (1995), Pour un flirt avec moi (1996), L'Idiomatic[4] (1997), Comment faire fi? (1997), Les Mondains (1998)[5]. En 2003, il signe les paroles de chansons reprises sur l'album Être ou ne pas être, Les Idiots ne sont pas des imbéciles de l'album T'es rien ou t'es quelqu'un[6] de Jeff Bodart (2003). Pour l'album suivant de ce chanteur belge, intitulé Et parfois c'est comme ça, il écrit les paroles de trois chansons : Destination ultramarine, Ma carcasse et Notre trajectoire en 2008[7]. Destination ultramarine est reprise sur l'album Best off Jeff, une compilation des meilleures chansons sortie en 2009 par [PIAS] Recordings.
-Écrivain
-Il commence à écrire sans formation particulière en 1992[3]. En 1993, il participe à un concours organisé par la Fédération Wallonie-Bruxelles[3] et gagne le prix de la Communauté française de Belgique dans le cadre de la Fureur de lire avec une nouvelle remarquée par Patrick Delperdange qui le met en relation avec Arnaud de la Croix, éditeur chez Casterman[2]. Thierry Robberecht édite son premier roman chez Casterman en 1997.
-Scénariste de bande dessinée
-Thierry Robberecht entame, à partir de 2000, une longue collaboration avec le dessinateur Marco Paulo pour lequel il écrit les scénarios de La Smala, une série humoristique qui raconte le quotidien d’une famille d’aujourd’hui qui s'échelonne sur 9 albums jusqu'en 2008 publiés chez le même éditeur pour les 6 premiers titres et les trois derniers tomes sont publiés aux éditions Dargaud. Également en 2000, il écrit la série Deep Maurice et Gologan pour le dessinateur Philippe Cenci aux éditions Casterman (3 albums, 2000-2003). Il fait son entrée dans Spirou[8] en 2004 avec un court récit de 2 planches, puis avec le même Marco Paulo, ils créent la série humoristique Zack et Willie dont 40 gags sont publiés jusqu'en 2007 et un album Les Rois de la loose sort en 2010 aux éditions 12bis qui éditent également la même année Dégelée royale. Ils parviennent à intercaler Le Monde de William, un album sur l'homosexualité édité par Exaequo, une association belge qui œuvre pour la prévention du SIDA en 2005. Il écrit également des scénarios de bandes dessinées pour d’autres dessinateurs dont Alberto Pagliaro. L’Ennemi[9] paraît dans la collection « Ligne rouge » aux éditions Casterman de 2003 à 2004 (3 tomes). Il écrit le scénario d'une nouvelle série Beluga pour Alain Maury mais elle est abandonnée après le second tome (Casterman 2001-2003) et pour le même dessinateur il écrit Le Contact, un one shot dans la collection « Ligne rouge » chez le même éditeur (2004). Puis, il écrit Opération dragon rouge pour les dessinateurs Marco Venanzi et Michel Pierret aux éditions Casterman en commission du groupe politique Alliance des démocrates et des libéraux pour l'Europe du Parlement européen en 2006. Il adapte en bande dessinée Joséphine, ange gardien l'émission de télévision éponyme, deux albums sont dessinés par Galdric et paraissent aux éditions Jungle ! la même année. L'année suivante pour le même éditeur, il pratique de même avec C'est pas sorcier avec 2 tomes de Fred et Jamy dont il écrit les scénarios pour Bruno Di Sano et Stibane (2007-2008). À l'occasion du soixantième anniversaire de Lefranc créé par Jacques Martin, il écrit le scénario du 23e tome la série de L'Éternel Shogun[10] pour le dessinateur Régric où il emmène Lefranc à Tokyo en 2012 et il enchaîne avec L'Enfant Staline[11], — récit traitant le thème du clonage — qui est publié l'année suivante. Gilles Ratier nous apprend que ces albums ont un tirage initial de 50 000 exemplaires[12],[13] en langue française et se classent respectivement quatrième et premier en tête des ventes de bandes dessinées de la semaine. Depuis lors, il ne publie plus de bande dessinée.
-Écrivain jeunesse
-Parallèlement, il écrit le scénario d'un épisode d'un dessin animé pour la télévision Papillon et Mamillon[14] en 2005 et à partir de cette même année, il écrit de nombreux livres pour enfants illustrés notamment par Philippe Goossens[1], Grégoire Mabire et Estelle Meens, publiés aux éditions Mijade jusqu'en 2022. Il écrit aussi des romans policiers pour la jeunesse dont Mémoire Kidnappée, illustré par Christophe Merlin dans la collection « Souris noire » des éditions Syros Jeunesse en 2006, Le Portrait de Leonora illustré par Jacques Ferrandez dans la même collection en 2007, Terminale Terminus, illustré par Olivier Balez dans la collection « Rat noir » (2010), Une affaire d'Adultes, illustré par Jacques Ferrandez dans la collection « Souris noire » (2009), Reborn, un roman de science-fiction (Mijade 2013), Memo 657 (Mijade, 2016) et qui lui vaut l'année suivante le Prix des Incorruptibles[15], Le Kleptomane (Oskar, 2017), Le Rapport Timberlake (Mijade, 2018), La Cache (Mijade, 2019), Dans le carnet noir d'Ursula et L'Affaire des cadavres aux cheveux blancs (Oskar, 2021).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thierry Robberecht naît le 11 février 1960 à Bruxelles. Il fait des études secondaires sans faire d'études supérieures mais c'est un lecteur assidu.
 </t>
         </is>
       </c>
@@ -547,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vie privée</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2020, il vit à Bruxelles et continue d'écrire. Il a deux enfants[1].
+          <t>Parolier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme parolier pour le chanteur belge Marka, il écrit Croyez-moi (1991), La Poupée Barbu (1995), Pour un flirt avec moi (1996), L'Idiomatic (1997), Comment faire fi? (1997), Les Mondains (1998). En 2003, il signe les paroles de chansons reprises sur l'album Être ou ne pas être, Les Idiots ne sont pas des imbéciles de l'album T'es rien ou t'es quelqu'un de Jeff Bodart (2003). Pour l'album suivant de ce chanteur belge, intitulé Et parfois c'est comme ça, il écrit les paroles de trois chansons : Destination ultramarine, Ma carcasse et Notre trajectoire en 2008. Destination ultramarine est reprise sur l'album Best off Jeff, une compilation des meilleures chansons sortie en 2009 par [PIAS] Recordings.
 </t>
         </is>
       </c>
@@ -578,10 +590,156 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Écrivain</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence à écrire sans formation particulière en 1992. En 1993, il participe à un concours organisé par la Fédération Wallonie-Bruxelles et gagne le prix de la Communauté française de Belgique dans le cadre de la Fureur de lire avec une nouvelle remarquée par Patrick Delperdange qui le met en relation avec Arnaud de la Croix, éditeur chez Casterman. Thierry Robberecht édite son premier roman chez Casterman en 1997.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thierry_Robberecht</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thierry_Robberecht</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Scénariste de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thierry Robberecht entame, à partir de 2000, une longue collaboration avec le dessinateur Marco Paulo pour lequel il écrit les scénarios de La Smala, une série humoristique qui raconte le quotidien d’une famille d’aujourd’hui qui s'échelonne sur 9 albums jusqu'en 2008 publiés chez le même éditeur pour les 6 premiers titres et les trois derniers tomes sont publiés aux éditions Dargaud. Également en 2000, il écrit la série Deep Maurice et Gologan pour le dessinateur Philippe Cenci aux éditions Casterman (3 albums, 2000-2003). Il fait son entrée dans Spirou en 2004 avec un court récit de 2 planches, puis avec le même Marco Paulo, ils créent la série humoristique Zack et Willie dont 40 gags sont publiés jusqu'en 2007 et un album Les Rois de la loose sort en 2010 aux éditions 12bis qui éditent également la même année Dégelée royale. Ils parviennent à intercaler Le Monde de William, un album sur l'homosexualité édité par Exaequo, une association belge qui œuvre pour la prévention du SIDA en 2005. Il écrit également des scénarios de bandes dessinées pour d’autres dessinateurs dont Alberto Pagliaro. L’Ennemi paraît dans la collection « Ligne rouge » aux éditions Casterman de 2003 à 2004 (3 tomes). Il écrit le scénario d'une nouvelle série Beluga pour Alain Maury mais elle est abandonnée après le second tome (Casterman 2001-2003) et pour le même dessinateur il écrit Le Contact, un one shot dans la collection « Ligne rouge » chez le même éditeur (2004). Puis, il écrit Opération dragon rouge pour les dessinateurs Marco Venanzi et Michel Pierret aux éditions Casterman en commission du groupe politique Alliance des démocrates et des libéraux pour l'Europe du Parlement européen en 2006. Il adapte en bande dessinée Joséphine, ange gardien l'émission de télévision éponyme, deux albums sont dessinés par Galdric et paraissent aux éditions Jungle ! la même année. L'année suivante pour le même éditeur, il pratique de même avec C'est pas sorcier avec 2 tomes de Fred et Jamy dont il écrit les scénarios pour Bruno Di Sano et Stibane (2007-2008). À l'occasion du soixantième anniversaire de Lefranc créé par Jacques Martin, il écrit le scénario du 23e tome la série de L'Éternel Shogun pour le dessinateur Régric où il emmène Lefranc à Tokyo en 2012 et il enchaîne avec L'Enfant Staline, — récit traitant le thème du clonage — qui est publié l'année suivante. Gilles Ratier nous apprend que ces albums ont un tirage initial de 50 000 exemplaires, en langue française et se classent respectivement quatrième et premier en tête des ventes de bandes dessinées de la semaine. Depuis lors, il ne publie plus de bande dessinée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thierry_Robberecht</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thierry_Robberecht</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Écrivain jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement, il écrit le scénario d'un épisode d'un dessin animé pour la télévision Papillon et Mamillon en 2005 et à partir de cette même année, il écrit de nombreux livres pour enfants illustrés notamment par Philippe Goossens, Grégoire Mabire et Estelle Meens, publiés aux éditions Mijade jusqu'en 2022. Il écrit aussi des romans policiers pour la jeunesse dont Mémoire Kidnappée, illustré par Christophe Merlin dans la collection « Souris noire » des éditions Syros Jeunesse en 2006, Le Portrait de Leonora illustré par Jacques Ferrandez dans la même collection en 2007, Terminale Terminus, illustré par Olivier Balez dans la collection « Rat noir » (2010), Une affaire d'Adultes, illustré par Jacques Ferrandez dans la collection « Souris noire » (2009), Reborn, un roman de science-fiction (Mijade 2013), Memo 657 (Mijade, 2016) et qui lui vaut l'année suivante le Prix des Incorruptibles, Le Kleptomane (Oskar, 2017), Le Rapport Timberlake (Mijade, 2018), La Cache (Mijade, 2019), Dans le carnet noir d'Ursula et L'Affaire des cadavres aux cheveux blancs (Oskar, 2021).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thierry_Robberecht</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thierry_Robberecht</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, il vit à Bruxelles et continue d'écrire. Il a deux enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thierry_Robberecht</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thierry_Robberecht</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Bande dessinée
 Opération dragon rouge, scénario : Thierry Robberecht, Dessin : Marco Venanzi et Michel Pierret, Éditions ADLE, 2006
@@ -626,34 +784,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Thierry_Robberecht</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thierry_Robberecht</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1993 :  prix de la Communauté française de Belgique dans le cadre de la Fureur de lire[2] ;
-2017 :  prix des Incorruptibles[15] pour Memo 657.</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1993 :  prix de la Communauté française de Belgique dans le cadre de la Fureur de lire ;
+2017 :  prix des Incorruptibles pour Memo 657.</t>
         </is>
       </c>
     </row>
